--- a/ERP/ERP.Web/Content/Files/IMPORT_HANGTONKHO.xlsx
+++ b/ERP/ERP.Web/Content/Files/IMPORT_HANGTONKHO.xlsx
@@ -16,21 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>MÃ HÀNG</t>
-  </si>
-  <si>
-    <t>MÃ KHO</t>
   </si>
   <si>
     <t xml:space="preserve"> SỐ LƯỢNG</t>
   </si>
   <si>
-    <t>HL_TKC_TANG3</t>
-  </si>
-  <si>
-    <t>A165-CTM</t>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -369,39 +363,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
